--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -221,17 +221,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -259,216 +249,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -810,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="2">
-        <f t="array" aca="1" ref="E18" ca="1">SUM(E2:E18)</f>
+        <f>SUM(E2:E17)</f>
         <v>68</v>
       </c>
       <c r="F18" s="2"/>
@@ -1254,41 +1034,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G7 G5 A2:F2 A4:E5 A6:F17 A18:C18 F18">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Terminé"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Terminé"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F23">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Attribué">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Attribué">
       <formula>NOT(ISERROR(SEARCH("Attribué",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>No tâche</t>
   </si>
@@ -153,6 +153,24 @@
   </si>
   <si>
     <t>Ajout des sons pour les différentes actions du jeu</t>
+  </si>
+  <si>
+    <t>Anthony Gauthier / William Themens</t>
+  </si>
+  <si>
+    <t>Installer Nugget MySQL</t>
+  </si>
+  <si>
+    <t>Pour éviter d'avoir a réinstaller MySQL à chaque fois.</t>
+  </si>
+  <si>
+    <t>Gestion des items consommables</t>
+  </si>
+  <si>
+    <t>Création des tables, des services reliés aux items consommables (potions)</t>
+  </si>
+  <si>
+    <t>Terminé</t>
   </si>
 </sst>
 </file>
@@ -221,7 +239,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -234,16 +262,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -279,6 +297,176 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -590,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,10 +942,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -797,10 +985,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -944,23 +1132,54 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
+      <c r="A18" s="2">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="2">
-        <f>SUM(E2:E17)</f>
-        <v>68</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <f>SUM(E2:E19)</f>
+        <v>68.5</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -1033,43 +1252,56 @@
       <c r="F29" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7 G5 A2:F2 A4:E5 A6:F17 A18:C18 F18">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="G7 G5 A2:F2 A4:E5 A6:F18 A19:B19 D19:F19">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"Terminé"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Terminé"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F23">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En cours">
+  <conditionalFormatting sqref="F2:F17 F19">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F17">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Attribué">
+  <conditionalFormatting sqref="F1:F17 F19">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Attribué">
       <formula>NOT(ISERROR(SEARCH("Attribué",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",F1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Attribué">
+      <formula>NOT(ISERROR(SEARCH("Attribué",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Combaxe\Combaxe_Utilities\Audits\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>No tâche</t>
   </si>
@@ -171,6 +166,12 @@
   </si>
   <si>
     <t>Terminé</t>
+  </si>
+  <si>
+    <t>Mise à jour dynamique interface combat</t>
+  </si>
+  <si>
+    <t>Mise à jour dynamique des barres de points de vie et d'énergie pendant le combat. (réduction du width… etc.)</t>
   </si>
 </sst>
 </file>
@@ -239,87 +240,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -407,66 +328,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -768,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,13 +637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" customWidth="1"/>
@@ -1171,23 +1032,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="2">
-        <f>SUM(E2:E19)</f>
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2">
+        <f>SUM(E2:E20)</f>
+        <v>68.900000000000006</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -1209,14 +1082,14 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="3"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,76 +1104,84 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7 G5 A2:F2 A4:E5 A6:F18 A19:B19 D19:F19">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="G7 G5 A2:F2 A4:E5 A6:F18 A19:B20 D19:F20">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Terminé"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Terminé"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F23">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",F21)))</formula>
+  <conditionalFormatting sqref="F22:F24">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17 F19">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="En cours">
+  <conditionalFormatting sqref="F2:F17 F19:F20">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F17 F19">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="F1:F17 F19:F20">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Attribué">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Attribué">
       <formula>NOT(ISERROR(SEARCH("Attribué",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Attribué">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Attribué">
       <formula>NOT(ISERROR(SEARCH("Attribué",F18)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -629,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1046,10 +1046,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="2">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E21" s="2">
         <f>SUM(E2:E20)</f>
-        <v>68.900000000000006</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Combaxe\Combaxe_Utilities\Audits\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>No tâche</t>
   </si>
@@ -172,6 +177,12 @@
   </si>
   <si>
     <t>Mise à jour dynamique des barres de points de vie et d'énergie pendant le combat. (réduction du width… etc.)</t>
+  </si>
+  <si>
+    <t>Optimisation de l'interface graphique de combat</t>
+  </si>
+  <si>
+    <t>Optimiser les champs de manière à ce que ce soit plus intuitif et que le joueur n'ait pas à deviner ce que les champs veulent dire.</t>
   </si>
 </sst>
 </file>
@@ -629,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -637,13 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" customWidth="1"/>
@@ -785,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1052,23 +1063,35 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2">
-        <f>SUM(E2:E20)</f>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2">
+        <f>SUM(E2:E21)</f>
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -1090,14 +1113,14 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="3"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,28 +1135,36 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7 G5 A2:F2 A4:E5 A6:F18 A19:B20 D19:F20">
+  <conditionalFormatting sqref="G7 G5 A2:F2 A4:E5 A6:F18 A19:B21 D19:F21">
     <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",A2)))</formula>
     </cfRule>
@@ -1154,17 +1185,17 @@
       <formula>NOT(ISERROR(SEARCH("Terminé",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F24">
+  <conditionalFormatting sqref="F23:F25">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",F22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17 F19:F20">
+  <conditionalFormatting sqref="F2:F17 F19:F21">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F17 F19:F20">
+  <conditionalFormatting sqref="F1:F17 F19:F21">
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F1)))</formula>
     </cfRule>

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,10 +735,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="E22" s="2">
         <f>SUM(E2:E21)</f>
-        <v>75</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Combaxe\Combaxe_Utilities\Audits\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>No tâche</t>
   </si>
@@ -116,9 +111,6 @@
     <t>Créer toutes les histoires reliées aux «boss»</t>
   </si>
   <si>
-    <t>Table de B.D.D pour les histoires</t>
-  </si>
-  <si>
     <t>Créer la table et faire les insertions en reliant les histoires de boss aux boss.</t>
   </si>
   <si>
@@ -155,9 +147,6 @@
     <t>Ajout des sons pour les différentes actions du jeu</t>
   </si>
   <si>
-    <t>Anthony Gauthier / William Themens</t>
-  </si>
-  <si>
     <t>Installer Nugget MySQL</t>
   </si>
   <si>
@@ -183,6 +172,9 @@
   </si>
   <si>
     <t>Optimiser les champs de manière à ce que ce soit plus intuitif et que le joueur n'ait pas à deviner ce que les champs veulent dire.</t>
+  </si>
+  <si>
+    <t>Faire le lien entre la BD et l'application pour les histoires</t>
   </si>
 </sst>
 </file>
@@ -640,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -651,10 +643,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" customWidth="1"/>
@@ -729,7 +721,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -738,7 +730,7 @@
         <v>7.5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -749,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -799,7 +791,7 @@
         <v>2.5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -814,7 +806,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -860,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -911,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -928,10 +920,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -940,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -948,10 +940,10 @@
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
@@ -968,10 +960,10 @@
         <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -988,10 +980,10 @@
         <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -1000,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,10 +1000,10 @@
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -1020,7 +1012,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1028,10 +1020,10 @@
         <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
@@ -1048,10 +1040,10 @@
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -1060,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1068,19 +1060,19 @@
         <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,7 +1082,7 @@
       </c>
       <c r="E22" s="2">
         <f>SUM(E2:E21)</f>
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Combaxe\Combaxe_Utilities\Audits\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -632,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,11 +647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" customWidth="1"/>
@@ -992,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>No tâche</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>Faire le lien entre la BD et l'application pour les histoires</t>
+  </si>
+  <si>
+    <t>Correction de bugs divers</t>
+  </si>
+  <si>
+    <t>Corrections de bugs liés aux nouvelles fonctionnalités ajoutées</t>
+  </si>
+  <si>
+    <t>Correction des fautes de français</t>
+  </si>
+  <si>
+    <t>Corrections des fautes dans les messageboxs, etc.</t>
   </si>
 </sst>
 </file>
@@ -645,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +732,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -761,7 +773,7 @@
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -1080,20 +1092,36 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
-        <v>13</v>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="2">
-        <f>SUM(E2:E21)</f>
-        <v>67.5</v>
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="2">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1101,29 +1129,33 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2">
+        <f>SUM(E2:E22)</f>
+        <v>70.5</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1131,7 +1163,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1139,29 +1171,51 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="3"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7 G5 A2:F2 A4:E5 A6:F18 A19:B21 D19:F21">
+  <conditionalFormatting sqref="G7 G5 A2:F2 A4:E5 A6:F18 A19:B24 D19:F24">
     <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",A2)))</formula>
     </cfRule>
@@ -1182,17 +1236,17 @@
       <formula>NOT(ISERROR(SEARCH("Terminé",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F25">
+  <conditionalFormatting sqref="F26:F28">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",F23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17 F19:F21">
+  <conditionalFormatting sqref="F2:F17 F19:F24">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F17 F19:F21">
+  <conditionalFormatting sqref="F1:F17 F19:F24">
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F1)))</formula>
     </cfRule>

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Combaxe\Combaxe_Utilities\Audits\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -649,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>46</v>
@@ -1141,7 +1136,7 @@
       </c>
       <c r="E25" s="2">
         <f>SUM(E2:E22)</f>
-        <v>70.5</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/Audits/sommaireAudit3.xlsx
+++ b/Audits/sommaireAudit3.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Combaxe\Combaxe_Utilities\Audits\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -644,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -654,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -1041,10 +1046,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="2">
-        <v>4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1136,7 +1141,7 @@
       </c>
       <c r="E25" s="2">
         <f>SUM(E2:E22)</f>
-        <v>73.5</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
